--- a/results/mst_weights.xlsx
+++ b/results/mst_weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21bdd6945e7f17fa/Documents/GitHub/minimumspanningtree/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_21EDA2E2F613C836C261081DCD5AE6364F2012BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE131638-854F-4898-A980-3D4EFC1F2642}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_0AB121E3F613C836C2610816C51AF88A4E208284" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,14 +487,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -529,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-45466</v>
+        <v>-44448</v>
       </c>
       <c r="C3">
         <v>-44448</v>
@@ -543,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>17562</v>
+        <v>25217</v>
       </c>
       <c r="C4">
         <v>25217</v>
@@ -571,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-13480</v>
+        <v>25130</v>
       </c>
       <c r="C6">
         <v>25130</v>
@@ -585,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-51932</v>
+        <v>-41693</v>
       </c>
       <c r="C7">
         <v>-41693</v>
@@ -599,7 +596,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-60319</v>
+        <v>-37205</v>
       </c>
       <c r="C8">
         <v>-37205</v>
@@ -613,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-133510</v>
+        <v>-114203</v>
       </c>
       <c r="C9">
         <v>-114203</v>
@@ -627,7 +624,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-81868</v>
+        <v>-31929</v>
       </c>
       <c r="C10">
         <v>-31929</v>
@@ -641,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-94492</v>
+        <v>-79570</v>
       </c>
       <c r="C11">
         <v>-79570</v>
@@ -655,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-102470</v>
+        <v>-79741</v>
       </c>
       <c r="C12">
         <v>-79741</v>
@@ -669,13 +666,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-224911</v>
+        <v>-139926</v>
       </c>
       <c r="C13">
         <v>-139926</v>
       </c>
       <c r="D13">
-        <v>-139827</v>
+        <v>-138046</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -683,7 +680,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-293333</v>
+        <v>-198094</v>
       </c>
       <c r="C14">
         <v>-198094</v>
@@ -697,13 +694,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-183951</v>
+        <v>-110571</v>
       </c>
       <c r="C15">
         <v>-110571</v>
       </c>
       <c r="D15">
-        <v>-110083</v>
+        <v>-110571</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -711,13 +708,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-264207</v>
+        <v>-233320</v>
       </c>
       <c r="C16">
         <v>-233320</v>
       </c>
       <c r="D16">
-        <v>-233248</v>
+        <v>-231514</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -725,7 +722,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-218525</v>
+        <v>-141960</v>
       </c>
       <c r="C17">
         <v>-141960</v>
@@ -739,7 +736,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-351781</v>
+        <v>-271743</v>
       </c>
       <c r="C18">
         <v>-271743</v>
@@ -753,13 +750,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-335522</v>
+        <v>-288906</v>
       </c>
       <c r="C19">
         <v>-288906</v>
       </c>
       <c r="D19">
-        <v>-288906</v>
+        <v>-288349</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -767,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-308735</v>
+        <v>-229506</v>
       </c>
       <c r="C20">
         <v>-229506</v>
@@ -781,13 +778,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-675019</v>
+        <v>-510185</v>
       </c>
       <c r="C21">
         <v>-510185</v>
       </c>
       <c r="D21">
-        <v>-510167</v>
+        <v>-505463</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -795,13 +792,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-683172</v>
+        <v>-515136</v>
       </c>
       <c r="C22">
         <v>-515136</v>
       </c>
       <c r="D22">
-        <v>-509402</v>
+        <v>-507327</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -809,13 +806,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-596689</v>
+        <v>-444357</v>
       </c>
       <c r="C23">
         <v>-444357</v>
       </c>
       <c r="D23">
-        <v>-444357</v>
+        <v>-443160</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -823,13 +820,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-600291</v>
+        <v>-393278</v>
       </c>
       <c r="C24">
         <v>-393278</v>
       </c>
       <c r="D24">
-        <v>-389413</v>
+        <v>-379085</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -837,13 +834,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-1420272</v>
+        <v>-1119906</v>
       </c>
       <c r="C25">
         <v>-1119906</v>
       </c>
       <c r="D25">
-        <v>-1097612</v>
+        <v>-1098800</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -851,13 +848,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-1112960</v>
+        <v>-788168</v>
       </c>
       <c r="C26">
         <v>-788168</v>
       </c>
       <c r="D26">
-        <v>-784573</v>
+        <v>-787904</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -865,13 +862,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-1172056</v>
+        <v>-895704</v>
       </c>
       <c r="C27">
         <v>-895704</v>
       </c>
       <c r="D27">
-        <v>-880807</v>
+        <v>-895304</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -879,13 +876,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-1058129</v>
+        <v>-733645</v>
       </c>
       <c r="C28">
         <v>-733645</v>
       </c>
       <c r="D28">
-        <v>-723998</v>
+        <v>-718612</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -893,13 +890,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-2247178</v>
+        <v>-1541291</v>
       </c>
       <c r="C29">
         <v>-1541291</v>
       </c>
       <c r="D29">
-        <v>-1510393</v>
+        <v>-1520388</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -907,13 +904,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-2239867</v>
+        <v>-1578294</v>
       </c>
       <c r="C30">
         <v>-1578294</v>
       </c>
       <c r="D30">
-        <v>-1573329</v>
+        <v>-1539108</v>
       </c>
     </row>
   </sheetData>

--- a/results/mst_weights.xlsx
+++ b/results/mst_weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21bdd6945e7f17fa/Documents/GitHub/minimumspanningtree/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0AB121E3F613C836C2610816C51AF88A4E208284" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_28D5E1E6F613C836C261083975BC61B76DAE63F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3161683C-BA00-4FA1-B291-7FCE7B23336D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>INPUT NAME</t>
+  </si>
+  <si>
+    <t>NAIVE KRUSKAL</t>
+  </si>
+  <si>
+    <t>UNION FIND KRUSKAL</t>
+  </si>
+  <si>
+    <t>PRIM</t>
+  </si>
   <si>
     <t>input_random_01_10.txt</t>
   </si>
@@ -107,9 +119,6 @@
   </si>
   <si>
     <t>input_random_29_800.txt</t>
-  </si>
-  <si>
-    <t>input_random_30_800.txt</t>
   </si>
 </sst>
 </file>
@@ -487,430 +496,431 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>29316</v>
-      </c>
-      <c r="C1">
-        <v>29316</v>
-      </c>
-      <c r="D1">
-        <v>29316</v>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>16940</v>
+        <v>29316</v>
       </c>
       <c r="C2">
-        <v>16940</v>
+        <v>29316</v>
       </c>
       <c r="D2">
-        <v>16940</v>
+        <v>29316</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>-44448</v>
+        <v>16940</v>
       </c>
       <c r="C3">
-        <v>-44448</v>
+        <v>16940</v>
       </c>
       <c r="D3">
-        <v>-44448</v>
+        <v>16940</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>25217</v>
+        <v>-44448</v>
       </c>
       <c r="C4">
-        <v>25217</v>
+        <v>-44448</v>
       </c>
       <c r="D4">
-        <v>25217</v>
+        <v>-44448</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>-32021</v>
+        <v>25217</v>
       </c>
       <c r="C5">
-        <v>-32021</v>
+        <v>25217</v>
       </c>
       <c r="D5">
-        <v>-32021</v>
+        <v>25217</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>25130</v>
+        <v>-32021</v>
       </c>
       <c r="C6">
-        <v>25130</v>
+        <v>-32021</v>
       </c>
       <c r="D6">
-        <v>25130</v>
+        <v>-32021</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>-41693</v>
+        <v>25130</v>
       </c>
       <c r="C7">
-        <v>-41693</v>
+        <v>25130</v>
       </c>
       <c r="D7">
-        <v>-41693</v>
+        <v>25130</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>-37205</v>
+        <v>-41693</v>
       </c>
       <c r="C8">
-        <v>-37205</v>
+        <v>-41693</v>
       </c>
       <c r="D8">
-        <v>-37205</v>
+        <v>-41693</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>-114203</v>
+        <v>-37205</v>
       </c>
       <c r="C9">
-        <v>-114203</v>
+        <v>-37205</v>
       </c>
       <c r="D9">
-        <v>-114203</v>
+        <v>-37205</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>-31929</v>
+        <v>-114203</v>
       </c>
       <c r="C10">
-        <v>-31929</v>
+        <v>-114203</v>
       </c>
       <c r="D10">
-        <v>-31929</v>
+        <v>-114203</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>-79570</v>
+        <v>-31929</v>
       </c>
       <c r="C11">
-        <v>-79570</v>
+        <v>-31929</v>
       </c>
       <c r="D11">
-        <v>-79570</v>
+        <v>-31929</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>-79741</v>
+        <v>-79570</v>
       </c>
       <c r="C12">
-        <v>-79741</v>
+        <v>-79570</v>
       </c>
       <c r="D12">
-        <v>-79741</v>
+        <v>-79570</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>-139926</v>
+        <v>-79741</v>
       </c>
       <c r="C13">
-        <v>-139926</v>
+        <v>-79741</v>
       </c>
       <c r="D13">
-        <v>-138046</v>
+        <v>-79741</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>-198094</v>
+        <v>-139926</v>
       </c>
       <c r="C14">
-        <v>-198094</v>
+        <v>-139926</v>
       </c>
       <c r="D14">
-        <v>-198094</v>
+        <v>-134160</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>-110571</v>
+        <v>-198094</v>
       </c>
       <c r="C15">
-        <v>-110571</v>
+        <v>-198094</v>
       </c>
       <c r="D15">
-        <v>-110571</v>
+        <v>-198094</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>-233320</v>
+        <v>-110571</v>
       </c>
       <c r="C16">
-        <v>-233320</v>
+        <v>-110571</v>
       </c>
       <c r="D16">
-        <v>-231514</v>
+        <v>-110571</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>-141960</v>
+        <v>-233320</v>
       </c>
       <c r="C17">
-        <v>-141960</v>
+        <v>-233320</v>
       </c>
       <c r="D17">
-        <v>-141960</v>
+        <v>-233248</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>-271743</v>
+        <v>-141960</v>
       </c>
       <c r="C18">
-        <v>-271743</v>
+        <v>-141960</v>
       </c>
       <c r="D18">
-        <v>-271743</v>
+        <v>-139246</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>-288906</v>
+        <v>-271743</v>
       </c>
       <c r="C19">
-        <v>-288906</v>
+        <v>-271743</v>
       </c>
       <c r="D19">
-        <v>-288349</v>
+        <v>-271743</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>-229506</v>
+        <v>-288906</v>
       </c>
       <c r="C20">
-        <v>-229506</v>
+        <v>-288906</v>
       </c>
       <c r="D20">
-        <v>-229506</v>
+        <v>-288349</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>-510185</v>
+        <v>-229506</v>
       </c>
       <c r="C21">
-        <v>-510185</v>
+        <v>-229506</v>
       </c>
       <c r="D21">
-        <v>-505463</v>
+        <v>-229506</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>-515136</v>
+        <v>-510185</v>
       </c>
       <c r="C22">
-        <v>-515136</v>
+        <v>-510185</v>
       </c>
       <c r="D22">
-        <v>-507327</v>
+        <v>-504549</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>-444357</v>
+        <v>-515136</v>
       </c>
       <c r="C23">
-        <v>-444357</v>
+        <v>-515136</v>
       </c>
       <c r="D23">
-        <v>-443160</v>
+        <v>-505861</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>-393278</v>
+        <v>-444357</v>
       </c>
       <c r="C24">
-        <v>-393278</v>
+        <v>-444357</v>
       </c>
       <c r="D24">
-        <v>-379085</v>
+        <v>-441327</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>-1119906</v>
+        <v>-393278</v>
       </c>
       <c r="C25">
-        <v>-1119906</v>
+        <v>-393278</v>
       </c>
       <c r="D25">
-        <v>-1098800</v>
+        <v>-383193</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>-788168</v>
+        <v>-1119906</v>
       </c>
       <c r="C26">
-        <v>-788168</v>
+        <v>-1119906</v>
       </c>
       <c r="D26">
-        <v>-787904</v>
+        <v>-1102874</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>-895704</v>
+        <v>-788168</v>
       </c>
       <c r="C27">
-        <v>-895704</v>
+        <v>-788168</v>
       </c>
       <c r="D27">
-        <v>-895304</v>
+        <v>-786384</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>-733645</v>
+        <v>-895704</v>
       </c>
       <c r="C28">
-        <v>-733645</v>
+        <v>-895704</v>
       </c>
       <c r="D28">
-        <v>-718612</v>
+        <v>-883033</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>-1541291</v>
+        <v>-733645</v>
       </c>
       <c r="C29">
-        <v>-1541291</v>
+        <v>-733645</v>
       </c>
       <c r="D29">
-        <v>-1520388</v>
+        <v>-718312</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>-1578294</v>
+        <v>-1541291</v>
       </c>
       <c r="C30">
-        <v>-1578294</v>
+        <v>-1541291</v>
       </c>
       <c r="D30">
-        <v>-1539108</v>
+        <v>-1526643</v>
       </c>
     </row>
   </sheetData>
